--- a/Saved_file/EM002/2026_05/work_logs_EM002_2026_05.xlsx
+++ b/Saved_file/EM002/2026_05/work_logs_EM002_2026_05.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-05-03 18:20:38</t>
+          <t>2026-05-15 14:14:16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.406</t>
+          <t>Mouse anomaly detected - Score: 0.758</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260503_000</t>
+          <t>SESS_20260515_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18:20:38</t>
+          <t>14:14:16</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-05-27 14:40:20</t>
+          <t>2026-05-06 19:56:47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.767</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260527_001</t>
+          <t>SESS_20260506_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14:40:20</t>
+          <t>19:56:47</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-05-24 20:23:47</t>
+          <t>2026-05-20 12:21:52</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.354</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260524_002</t>
+          <t>SESS_20260520_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -611,34 +611,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20:23:47</t>
+          <t>12:21:52</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-05-27 15:31:12</t>
+          <t>2026-05-20 19:40:21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.246</t>
+          <t>Face verification failed - Similarity: 0.207</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260527_003</t>
+          <t>SESS_20260520_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15:31:12</t>
+          <t>19:40:21</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -678,17 +678,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-05-20 18:14:55</t>
+          <t>2026-05-02 13:59:47</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.314</t>
+          <t>Mouse anomaly detected - Score: 0.906</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260520_004</t>
+          <t>SESS_20260502_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,34 +711,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>18:14:55</t>
+          <t>13:59:47</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-05-10 17:58:33</t>
+          <t>2026-05-16 09:44:05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.328</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260510_005</t>
+          <t>SESS_20260516_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -761,34 +761,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:58:33</t>
+          <t>09:44:05</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-05-25 08:39:46</t>
+          <t>2026-05-06 16:50:04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.709</t>
+          <t>Face verification failed - Similarity: 0.395</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260525_006</t>
+          <t>SESS_20260506_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>08:39:46</t>
+          <t>16:50:04</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-05-18 10:03:02</t>
+          <t>2026-05-13 18:58:14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.224</t>
+          <t>Mouse anomaly detected - Score: 0.763</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260518_007</t>
+          <t>SESS_20260513_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -861,29 +861,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10:03:02</t>
+          <t>18:58:14</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-05-25 14:30:51</t>
+          <t>2026-05-18 08:37:52</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260525_008</t>
+          <t>SESS_20260518_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -911,12 +911,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14:30:51</t>
+          <t>08:37:52</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -928,17 +928,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-05-05 10:01:30</t>
+          <t>2026-05-16 10:58:08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.701</t>
+          <t>Face verification failed - Similarity: 0.345</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260505_009</t>
+          <t>SESS_20260516_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -961,34 +961,34 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:01:30</t>
+          <t>10:58:08</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-05-09 10:04:29</t>
+          <t>2026-05-08 14:18:39</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.438</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260509_010</t>
+          <t>SESS_20260508_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1011,34 +1011,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10:04:29</t>
+          <t>14:18:39</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-05-14 19:09:05</t>
+          <t>2026-05-15 14:06:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.834</t>
+          <t>Mouse anomaly detected - Score: 0.927</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20260514_011</t>
+          <t>SESS_20260515_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>19:09:05</t>
+          <t>14:06:11</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1078,17 +1078,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-05-04 20:30:00</t>
+          <t>2026-05-19 12:28:19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.300</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20260504_012</t>
+          <t>SESS_20260519_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1111,29 +1111,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:28:19</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-05-22 14:46:13</t>
+          <t>2026-05-16 11:41:51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SESS_20260522_013</t>
+          <t>SESS_20260516_013</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14:46:13</t>
+          <t>11:41:51</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1178,17 +1178,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-05-17 15:18:03</t>
+          <t>2026-05-08 17:11:44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.935</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SESS_20260517_014</t>
+          <t>SESS_20260508_014</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1211,29 +1211,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15:18:03</t>
+          <t>17:11:44</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-05-20 14:06:58</t>
+          <t>2026-05-06 10:39:01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SESS_20260520_015</t>
+          <t>SESS_20260506_015</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14:06:58</t>
+          <t>10:39:01</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1278,17 +1278,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-05-24 18:32:04</t>
+          <t>2026-05-09 11:03:52</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.762</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SESS_20260524_016</t>
+          <t>SESS_20260509_016</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1311,34 +1311,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18:32:04</t>
+          <t>11:03:52</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-05-03 14:22:58</t>
+          <t>2026-05-07 11:39:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.335</t>
+          <t>Mouse anomaly detected - Score: 0.882</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SESS_20260503_017</t>
+          <t>SESS_20260507_017</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1361,34 +1361,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>14:22:58</t>
+          <t>11:39:45</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-05-19 15:20:47</t>
+          <t>2026-05-27 08:43:43</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.819</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SESS_20260519_018</t>
+          <t>SESS_20260527_018</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1411,34 +1411,34 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15:20:47</t>
+          <t>08:43:43</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-05-23 19:01:52</t>
+          <t>2026-05-03 11:40:21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.829</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SESS_20260523_019</t>
+          <t>SESS_20260503_019</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1461,34 +1461,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19:01:52</t>
+          <t>11:40:21</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-05-19 10:41:29</t>
+          <t>2026-05-25 20:45:18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.234</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SESS_20260519_020</t>
+          <t>SESS_20260525_020</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1511,24 +1511,24 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10:41:29</t>
+          <t>20:45:18</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-05-16 12:41:31</t>
+          <t>2026-05-12 09:54:48</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SESS_20260516_021</t>
+          <t>SESS_20260512_021</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>12:41:31</t>
+          <t>09:54:48</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1578,17 +1578,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-05-17 09:20:48</t>
+          <t>2026-05-16 16:29:22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.386</t>
+          <t>Face verification failed - Similarity: 0.275</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SESS_20260517_022</t>
+          <t>SESS_20260516_022</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:20:48</t>
+          <t>16:29:22</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1628,17 +1628,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-05-28 11:10:39</t>
+          <t>2026-05-05 18:28:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.826</t>
+          <t>Face verification failed - Similarity: 0.357</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SESS_20260528_023</t>
+          <t>SESS_20260505_023</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1661,34 +1661,34 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11:10:39</t>
+          <t>18:28:34</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-05-28 20:44:06</t>
+          <t>2026-05-03 19:49:52</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.850</t>
+          <t>Face verification failed - Similarity: 0.471</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SESS_20260528_024</t>
+          <t>SESS_20260503_024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1711,34 +1711,34 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20:44:06</t>
+          <t>19:49:52</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-05-13 10:17:07</t>
+          <t>2026-05-11 16:38:20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.354</t>
+          <t>Face verification failed - Similarity: 0.305</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SESS_20260513_025</t>
+          <t>SESS_20260511_025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10:17:07</t>
+          <t>16:38:20</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1778,12 +1778,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-05-25 19:38:35</t>
+          <t>2026-05-24 08:53:56</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SESS_20260525_026</t>
+          <t>SESS_20260524_026</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>19:38:35</t>
+          <t>08:53:56</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1828,17 +1828,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-05-27 11:51:41</t>
+          <t>2026-05-23 08:38:43</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.893</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SESS_20260527_027</t>
+          <t>SESS_20260523_027</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1861,29 +1861,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11:51:41</t>
+          <t>08:38:43</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-05-19 18:22:06</t>
+          <t>2026-05-25 20:35:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SESS_20260519_028</t>
+          <t>SESS_20260525_028</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>18:22:06</t>
+          <t>20:35:34</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1928,17 +1928,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-05-05 10:19:14</t>
+          <t>2026-05-02 14:30:12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.386</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SESS_20260505_029</t>
+          <t>SESS_20260502_029</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1961,24 +1961,24 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10:19:14</t>
+          <t>14:30:12</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-05-14 17:31:12</t>
+          <t>2026-05-28 09:42:27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SESS_20260514_030</t>
+          <t>SESS_20260528_030</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>17:31:12</t>
+          <t>09:42:27</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2028,17 +2028,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-05-26 09:02:50</t>
+          <t>2026-05-07 17:59:48</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.878</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SESS_20260526_031</t>
+          <t>SESS_20260507_031</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -2061,34 +2061,34 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>09:02:50</t>
+          <t>17:59:48</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-05-10 10:10:16</t>
+          <t>2026-05-20 09:59:46</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.335</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SESS_20260510_032</t>
+          <t>SESS_20260520_032</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2111,467 +2111,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10:10:16</t>
+          <t>09:59:46</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2026-05-06 17:38:23</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>BROWSER_OPEN</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SESS_20260506_033</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2026-05-06</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>17:38:23</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2026-05-05 12:13:00</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>FACE_MATCH</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.221</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>SESS_20260505_034</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2026-05-05</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>12:13:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
           <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2026-05-26 08:45:07</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>FACE_MATCH</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.294</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>SESS_20260526_035</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2026-05-26</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>08:45:07</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2026-05-10 20:40:18</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SESSION_START</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>SESS_20260510_036</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2026-05-10</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>20:40:18</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2026-05-05 12:22:56</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>BEHAVIOR_ANOMALY</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.776</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>SESS_20260505_037</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2026-05-05</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>12:22:56</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2026-05-24 09:42:58</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.714</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>SESS_20260524_038</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2026-05-24</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>09:42:58</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2026-05-18 09:08:09</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>LIVENESS_CHECK</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.319</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>SESS_20260518_039</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2026-05-18</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>09:08:09</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2026-05-01 13:26:46</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SESSION_START</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>SESS_20260501_040</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2026-05-01</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>13:26:46</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2026-05-15 14:00:47</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.839</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>SESS_20260515_041</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2026-05-15</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>14:00:47</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Mouse</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2279,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-05-01 09:36:24</t>
+          <t>2026-05-01 10:34:24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2739,7 +2289,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.517</t>
+          <t>Mouse session - Score: 0.515</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2767,7 +2317,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>09:36:24</t>
+          <t>10:34:24</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2776,58 +2326,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>16590</v>
+        <v>24381</v>
       </c>
       <c r="L2" t="n">
-        <v>16590</v>
+        <v>24381</v>
       </c>
       <c r="M2" t="n">
-        <v>26001.66</v>
+        <v>19929.49</v>
       </c>
       <c r="N2" t="n">
-        <v>15601</v>
+        <v>11957.7</v>
       </c>
       <c r="O2" t="n">
-        <v>10400.67</v>
+        <v>7971.8</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>64.56</v>
+        <v>135.28</v>
       </c>
       <c r="S2" t="n">
-        <v>402.75</v>
+        <v>147.32</v>
       </c>
       <c r="T2" t="n">
-        <v>17.5</v>
+        <v>24.53</v>
       </c>
       <c r="U2" t="n">
-        <v>241.65</v>
+        <v>88.39</v>
       </c>
       <c r="V2" t="n">
-        <v>161.1</v>
+        <v>58.93</v>
       </c>
       <c r="W2" t="n">
-        <v>29.31</v>
+        <v>24.13</v>
       </c>
       <c r="X2" t="n">
-        <v>4.95</v>
+        <v>2.66</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.56</v>
+        <v>135.28</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.517</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-05-01 11:27:21</t>
+          <t>2026-05-01 13:06:13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2837,7 +2387,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.603</t>
+          <t>Mouse session - Score: 0.607</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2865,7 +2415,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11:27:21</t>
+          <t>13:06:13</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2874,58 +2424,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>22426</v>
+        <v>27304</v>
       </c>
       <c r="L3" t="n">
-        <v>22426</v>
+        <v>27304</v>
       </c>
       <c r="M3" t="n">
-        <v>6741.92</v>
+        <v>23547.55</v>
       </c>
       <c r="N3" t="n">
-        <v>4045.15</v>
+        <v>14128.53</v>
       </c>
       <c r="O3" t="n">
-        <v>2696.77</v>
+        <v>9419.02</v>
       </c>
       <c r="P3" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R3" t="n">
-        <v>71.68000000000001</v>
+        <v>118.99</v>
       </c>
       <c r="S3" t="n">
-        <v>94.05</v>
+        <v>197.89</v>
       </c>
       <c r="T3" t="n">
-        <v>36.99</v>
+        <v>17.31</v>
       </c>
       <c r="U3" t="n">
-        <v>56.43</v>
+        <v>118.74</v>
       </c>
       <c r="V3" t="n">
-        <v>37.62</v>
+        <v>79.16</v>
       </c>
       <c r="W3" t="n">
-        <v>20.84</v>
+        <v>23.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.86</v>
+        <v>27.83</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.68000000000001</v>
+        <v>118.99</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.603</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-05-01 16:19:48</t>
+          <t>2026-05-01 09:56:43</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2935,7 +2485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.554</t>
+          <t>Mouse session - Score: 0.555</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2963,7 +2513,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:19:48</t>
+          <t>09:56:43</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2972,58 +2522,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>6170</v>
+        <v>28522</v>
       </c>
       <c r="L4" t="n">
-        <v>6170</v>
+        <v>28522</v>
       </c>
       <c r="M4" t="n">
-        <v>25725.51</v>
+        <v>9943.01</v>
       </c>
       <c r="N4" t="n">
-        <v>15435.3</v>
+        <v>5965.8</v>
       </c>
       <c r="O4" t="n">
-        <v>10290.2</v>
+        <v>3977.2</v>
       </c>
       <c r="P4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>102.3</v>
+        <v>45.22</v>
       </c>
       <c r="S4" t="n">
-        <v>251.48</v>
+        <v>219.86</v>
       </c>
       <c r="T4" t="n">
-        <v>25.81</v>
+        <v>17.4</v>
       </c>
       <c r="U4" t="n">
-        <v>150.89</v>
+        <v>131.92</v>
       </c>
       <c r="V4" t="n">
-        <v>100.59</v>
+        <v>87.94</v>
       </c>
       <c r="W4" t="n">
-        <v>24.36</v>
+        <v>3.41</v>
       </c>
       <c r="X4" t="n">
-        <v>26.22</v>
+        <v>5.89</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.3</v>
+        <v>45.22</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.554</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-05-04 10:41:36</t>
+          <t>2026-05-04 10:33:37</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3033,7 +2583,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.454</t>
+          <t>Mouse session - Score: 0.646</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3061,7 +2611,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10:41:36</t>
+          <t>10:33:37</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3070,58 +2620,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>17152</v>
+        <v>10379</v>
       </c>
       <c r="L5" t="n">
-        <v>17152</v>
+        <v>10379</v>
       </c>
       <c r="M5" t="n">
-        <v>17817.64</v>
+        <v>32335.67</v>
       </c>
       <c r="N5" t="n">
-        <v>10690.58</v>
+        <v>19401.4</v>
       </c>
       <c r="O5" t="n">
-        <v>7127.06</v>
+        <v>12934.27</v>
       </c>
       <c r="P5" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>106.91</v>
+        <v>126.11</v>
       </c>
       <c r="S5" t="n">
-        <v>166.65</v>
+        <v>256.41</v>
       </c>
       <c r="T5" t="n">
-        <v>16.11</v>
+        <v>24.38</v>
       </c>
       <c r="U5" t="n">
-        <v>99.98999999999999</v>
+        <v>153.85</v>
       </c>
       <c r="V5" t="n">
-        <v>66.66</v>
+        <v>102.57</v>
       </c>
       <c r="W5" t="n">
-        <v>14.56</v>
+        <v>20.14</v>
       </c>
       <c r="X5" t="n">
-        <v>20.89</v>
+        <v>18.74</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.91</v>
+        <v>126.11</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.454</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-05-04 16:02:34</t>
+          <t>2026-05-04 14:22:46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3131,7 +2681,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.530</t>
+          <t>Mouse session - Score: 0.478</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3159,7 +2709,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16:02:34</t>
+          <t>14:22:46</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3168,58 +2718,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>11871</v>
+        <v>22174</v>
       </c>
       <c r="L6" t="n">
-        <v>11871</v>
+        <v>22174</v>
       </c>
       <c r="M6" t="n">
-        <v>14863.5</v>
+        <v>30571.59</v>
       </c>
       <c r="N6" t="n">
-        <v>8918.1</v>
+        <v>18342.96</v>
       </c>
       <c r="O6" t="n">
-        <v>5945.4</v>
+        <v>12228.64</v>
       </c>
       <c r="P6" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R6" t="n">
-        <v>178.87</v>
+        <v>130.06</v>
       </c>
       <c r="S6" t="n">
-        <v>83.09999999999999</v>
+        <v>235.07</v>
       </c>
       <c r="T6" t="n">
-        <v>43.6</v>
+        <v>14.67</v>
       </c>
       <c r="U6" t="n">
-        <v>49.86</v>
+        <v>141.04</v>
       </c>
       <c r="V6" t="n">
-        <v>33.24</v>
+        <v>94.03</v>
       </c>
       <c r="W6" t="n">
-        <v>25.07</v>
+        <v>26.88</v>
       </c>
       <c r="X6" t="n">
-        <v>3.32</v>
+        <v>11.46</v>
       </c>
       <c r="Y6" t="n">
-        <v>178.87</v>
+        <v>130.06</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.53</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-05-04 16:50:03</t>
+          <t>2026-05-04 13:11:35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3229,7 +2779,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.540</t>
+          <t>Mouse session - Score: 0.508</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3257,7 +2807,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16:50:03</t>
+          <t>13:11:35</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3266,58 +2816,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>28431</v>
+        <v>15310</v>
       </c>
       <c r="L7" t="n">
-        <v>28431</v>
+        <v>15310</v>
       </c>
       <c r="M7" t="n">
-        <v>11014.7</v>
+        <v>7507.45</v>
       </c>
       <c r="N7" t="n">
-        <v>6608.82</v>
+        <v>4504.47</v>
       </c>
       <c r="O7" t="n">
-        <v>4405.88</v>
+        <v>3002.98</v>
       </c>
       <c r="P7" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R7" t="n">
-        <v>143.66</v>
+        <v>102.69</v>
       </c>
       <c r="S7" t="n">
-        <v>76.67</v>
+        <v>73.11</v>
       </c>
       <c r="T7" t="n">
-        <v>47.42</v>
+        <v>18.83</v>
       </c>
       <c r="U7" t="n">
-        <v>46</v>
+        <v>43.86</v>
       </c>
       <c r="V7" t="n">
-        <v>30.67</v>
+        <v>29.24</v>
       </c>
       <c r="W7" t="n">
-        <v>27.69</v>
+        <v>4.79</v>
       </c>
       <c r="X7" t="n">
-        <v>20.29</v>
+        <v>2.61</v>
       </c>
       <c r="Y7" t="n">
-        <v>143.66</v>
+        <v>102.69</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.54</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-05-05 15:52:36</t>
+          <t>2026-05-05 09:02:54</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3327,7 +2877,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.586</t>
+          <t>Mouse session - Score: 0.593</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3355,7 +2905,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15:52:36</t>
+          <t>09:02:54</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3364,58 +2914,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>14121</v>
+        <v>7699</v>
       </c>
       <c r="L8" t="n">
-        <v>14121</v>
+        <v>7699</v>
       </c>
       <c r="M8" t="n">
-        <v>9747.700000000001</v>
+        <v>8608.139999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>5848.62</v>
+        <v>5164.89</v>
       </c>
       <c r="O8" t="n">
-        <v>3899.08</v>
+        <v>3443.26</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>111.36</v>
+        <v>83.94</v>
       </c>
       <c r="S8" t="n">
-        <v>87.53</v>
+        <v>102.55</v>
       </c>
       <c r="T8" t="n">
-        <v>20.66</v>
+        <v>8.83</v>
       </c>
       <c r="U8" t="n">
-        <v>52.52</v>
+        <v>61.53</v>
       </c>
       <c r="V8" t="n">
-        <v>35.01</v>
+        <v>41.02</v>
       </c>
       <c r="W8" t="n">
-        <v>21.29</v>
+        <v>13.33</v>
       </c>
       <c r="X8" t="n">
-        <v>4.27</v>
+        <v>29.18</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.36</v>
+        <v>83.94</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.586</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-05-05 12:50:07</t>
+          <t>2026-05-05 13:15:48</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3425,7 +2975,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.541</t>
+          <t>Mouse session - Score: 0.555</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3453,7 +3003,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12:50:07</t>
+          <t>13:15:48</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3462,58 +3012,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>14140</v>
+        <v>23209</v>
       </c>
       <c r="L9" t="n">
-        <v>14140</v>
+        <v>23209</v>
       </c>
       <c r="M9" t="n">
-        <v>29995.65</v>
+        <v>28059.91</v>
       </c>
       <c r="N9" t="n">
-        <v>17997.39</v>
+        <v>16835.94</v>
       </c>
       <c r="O9" t="n">
-        <v>11998.26</v>
+        <v>11223.96</v>
       </c>
       <c r="P9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q9" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R9" t="n">
-        <v>41.75</v>
+        <v>166.26</v>
       </c>
       <c r="S9" t="n">
-        <v>718.38</v>
+        <v>168.77</v>
       </c>
       <c r="T9" t="n">
-        <v>31.47</v>
+        <v>17.92</v>
       </c>
       <c r="U9" t="n">
-        <v>431.03</v>
+        <v>101.26</v>
       </c>
       <c r="V9" t="n">
-        <v>287.35</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="W9" t="n">
-        <v>7.9</v>
+        <v>24.06</v>
       </c>
       <c r="X9" t="n">
-        <v>3.47</v>
+        <v>26.77</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.75</v>
+        <v>166.26</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.541</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-05-05 16:28:21</t>
+          <t>2026-05-05 11:00:13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3523,7 +3073,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.555</t>
+          <t>Mouse session - Score: 0.507</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3551,7 +3101,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:28:21</t>
+          <t>11:00:13</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3560,58 +3110,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>17450</v>
+        <v>9655</v>
       </c>
       <c r="L10" t="n">
-        <v>17450</v>
+        <v>9655</v>
       </c>
       <c r="M10" t="n">
-        <v>21609.56</v>
+        <v>10266.67</v>
       </c>
       <c r="N10" t="n">
-        <v>12965.74</v>
+        <v>6160</v>
       </c>
       <c r="O10" t="n">
-        <v>8643.82</v>
+        <v>4106.67</v>
       </c>
       <c r="P10" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R10" t="n">
-        <v>102.17</v>
+        <v>175.58</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5</v>
+        <v>58.47</v>
       </c>
       <c r="T10" t="n">
-        <v>13.56</v>
+        <v>10.62</v>
       </c>
       <c r="U10" t="n">
-        <v>126.9</v>
+        <v>35.08</v>
       </c>
       <c r="V10" t="n">
-        <v>84.59999999999999</v>
+        <v>23.39</v>
       </c>
       <c r="W10" t="n">
-        <v>22.2</v>
+        <v>18.71</v>
       </c>
       <c r="X10" t="n">
-        <v>7.25</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.17</v>
+        <v>175.58</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.555</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-05-06 17:17:29</t>
+          <t>2026-05-06 11:23:32</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3621,7 +3171,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.533</t>
+          <t>Mouse session - Score: 0.648</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3649,7 +3199,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:17:29</t>
+          <t>11:23:32</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3658,58 +3208,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>13130</v>
+        <v>15923</v>
       </c>
       <c r="L11" t="n">
-        <v>13130</v>
+        <v>15923</v>
       </c>
       <c r="M11" t="n">
-        <v>21159.05</v>
+        <v>12189.65</v>
       </c>
       <c r="N11" t="n">
-        <v>12695.43</v>
+        <v>7313.79</v>
       </c>
       <c r="O11" t="n">
-        <v>8463.620000000001</v>
+        <v>4875.86</v>
       </c>
       <c r="P11" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="R11" t="n">
-        <v>101.53</v>
+        <v>75.58</v>
       </c>
       <c r="S11" t="n">
-        <v>208.4</v>
+        <v>161.29</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17</v>
+        <v>48.26</v>
       </c>
       <c r="U11" t="n">
-        <v>125.04</v>
+        <v>96.77</v>
       </c>
       <c r="V11" t="n">
-        <v>83.36</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="W11" t="n">
-        <v>6.91</v>
+        <v>2.52</v>
       </c>
       <c r="X11" t="n">
-        <v>23.27</v>
+        <v>11.51</v>
       </c>
       <c r="Y11" t="n">
-        <v>101.53</v>
+        <v>75.58</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.533</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-05-06 14:21:43</t>
+          <t>2026-05-06 09:43:54</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3719,7 +3269,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.572</t>
+          <t>Mouse session - Score: 0.621</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3747,7 +3297,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14:21:43</t>
+          <t>09:43:54</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3756,58 +3306,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>11785</v>
+        <v>26965</v>
       </c>
       <c r="L12" t="n">
-        <v>11785</v>
+        <v>26965</v>
       </c>
       <c r="M12" t="n">
-        <v>30468.8</v>
+        <v>26956.61</v>
       </c>
       <c r="N12" t="n">
-        <v>18281.28</v>
+        <v>16173.97</v>
       </c>
       <c r="O12" t="n">
-        <v>12187.52</v>
+        <v>10782.65</v>
       </c>
       <c r="P12" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q12" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="R12" t="n">
-        <v>169.41</v>
+        <v>170.99</v>
       </c>
       <c r="S12" t="n">
-        <v>179.85</v>
+        <v>157.65</v>
       </c>
       <c r="T12" t="n">
-        <v>24.08</v>
+        <v>33.93</v>
       </c>
       <c r="U12" t="n">
-        <v>107.91</v>
+        <v>94.59</v>
       </c>
       <c r="V12" t="n">
-        <v>71.94</v>
+        <v>63.06</v>
       </c>
       <c r="W12" t="n">
-        <v>17.87</v>
+        <v>22.41</v>
       </c>
       <c r="X12" t="n">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>169.41</v>
+        <v>170.99</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.572</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-05-06 17:27:04</t>
+          <t>2026-05-06 10:52:12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3817,7 +3367,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.562</t>
+          <t>Mouse session - Score: 0.489</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3845,7 +3395,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:27:04</t>
+          <t>10:52:12</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3854,58 +3404,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>20166</v>
+        <v>13872</v>
       </c>
       <c r="L13" t="n">
-        <v>20166</v>
+        <v>13872</v>
       </c>
       <c r="M13" t="n">
-        <v>22102.85</v>
+        <v>21372.13</v>
       </c>
       <c r="N13" t="n">
-        <v>13261.71</v>
+        <v>12823.28</v>
       </c>
       <c r="O13" t="n">
-        <v>8841.139999999999</v>
+        <v>8548.85</v>
       </c>
       <c r="P13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R13" t="n">
-        <v>49.82</v>
+        <v>147.94</v>
       </c>
       <c r="S13" t="n">
-        <v>443.69</v>
+        <v>144.47</v>
       </c>
       <c r="T13" t="n">
-        <v>12.79</v>
+        <v>24.52</v>
       </c>
       <c r="U13" t="n">
-        <v>266.21</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="V13" t="n">
-        <v>177.47</v>
+        <v>57.79</v>
       </c>
       <c r="W13" t="n">
-        <v>27.74</v>
+        <v>12.4</v>
       </c>
       <c r="X13" t="n">
-        <v>4.12</v>
+        <v>11.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.82</v>
+        <v>147.94</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-05-07 10:44:31</t>
+          <t>2026-05-07 16:07:07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3915,7 +3465,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.512</t>
+          <t>Mouse session - Score: 0.532</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3943,7 +3493,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10:44:31</t>
+          <t>16:07:07</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3952,58 +3502,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6085</v>
+        <v>16401</v>
       </c>
       <c r="L14" t="n">
-        <v>6085</v>
+        <v>16401</v>
       </c>
       <c r="M14" t="n">
-        <v>9437.559999999999</v>
+        <v>23139.71</v>
       </c>
       <c r="N14" t="n">
-        <v>5662.54</v>
+        <v>13883.82</v>
       </c>
       <c r="O14" t="n">
-        <v>3775.02</v>
+        <v>9255.879999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>78.83</v>
+        <v>109.72</v>
       </c>
       <c r="S14" t="n">
-        <v>119.72</v>
+        <v>210.9</v>
       </c>
       <c r="T14" t="n">
-        <v>5.42</v>
+        <v>30.7</v>
       </c>
       <c r="U14" t="n">
-        <v>71.83</v>
+        <v>126.54</v>
       </c>
       <c r="V14" t="n">
-        <v>47.89</v>
+        <v>84.36</v>
       </c>
       <c r="W14" t="n">
-        <v>17.46</v>
+        <v>25.51</v>
       </c>
       <c r="X14" t="n">
-        <v>13.17</v>
+        <v>17.15</v>
       </c>
       <c r="Y14" t="n">
-        <v>78.83</v>
+        <v>109.72</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.512</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-05-07 14:49:24</t>
+          <t>2026-05-07 15:11:22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4013,7 +3563,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.632</t>
+          <t>Mouse session - Score: 0.480</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4041,7 +3591,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14:49:24</t>
+          <t>15:11:22</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -4050,58 +3600,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>6079</v>
+        <v>19624</v>
       </c>
       <c r="L15" t="n">
-        <v>6079</v>
+        <v>19624</v>
       </c>
       <c r="M15" t="n">
-        <v>17996.99</v>
+        <v>17483.89</v>
       </c>
       <c r="N15" t="n">
-        <v>10798.2</v>
+        <v>10490.33</v>
       </c>
       <c r="O15" t="n">
-        <v>7198.8</v>
+        <v>6993.56</v>
       </c>
       <c r="P15" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R15" t="n">
-        <v>163.07</v>
+        <v>124.73</v>
       </c>
       <c r="S15" t="n">
-        <v>110.37</v>
+        <v>140.17</v>
       </c>
       <c r="T15" t="n">
-        <v>32.26</v>
+        <v>26.81</v>
       </c>
       <c r="U15" t="n">
-        <v>66.22</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="V15" t="n">
-        <v>44.15</v>
+        <v>56.07</v>
       </c>
       <c r="W15" t="n">
-        <v>4.68</v>
+        <v>6.03</v>
       </c>
       <c r="X15" t="n">
-        <v>6.78</v>
+        <v>3.81</v>
       </c>
       <c r="Y15" t="n">
-        <v>163.07</v>
+        <v>124.73</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.632</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-05-07 10:55:34</t>
+          <t>2026-05-07 11:50:32</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4111,7 +3661,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.451</t>
+          <t>Mouse session - Score: 0.627</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4139,7 +3689,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10:55:34</t>
+          <t>11:50:32</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -4148,58 +3698,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>25114</v>
+        <v>16433</v>
       </c>
       <c r="L16" t="n">
-        <v>25114</v>
+        <v>16433</v>
       </c>
       <c r="M16" t="n">
-        <v>23470.65</v>
+        <v>24351.86</v>
       </c>
       <c r="N16" t="n">
-        <v>14082.39</v>
+        <v>14611.12</v>
       </c>
       <c r="O16" t="n">
-        <v>9388.26</v>
+        <v>9740.75</v>
       </c>
       <c r="P16" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>68.73</v>
+        <v>43.55</v>
       </c>
       <c r="S16" t="n">
-        <v>341.5</v>
+        <v>559.17</v>
       </c>
       <c r="T16" t="n">
-        <v>8.890000000000001</v>
+        <v>19.92</v>
       </c>
       <c r="U16" t="n">
-        <v>204.9</v>
+        <v>335.5</v>
       </c>
       <c r="V16" t="n">
-        <v>136.6</v>
+        <v>223.67</v>
       </c>
       <c r="W16" t="n">
-        <v>17.49</v>
+        <v>24.41</v>
       </c>
       <c r="X16" t="n">
-        <v>7.97</v>
+        <v>2.18</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.73</v>
+        <v>43.55</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.451</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-05-08 13:36:15</t>
+          <t>2026-05-08 09:37:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4209,7 +3759,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.816</t>
+          <t>Mouse session - Score: 0.499</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4224,11 +3774,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4237,7 +3787,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13:36:15</t>
+          <t>09:37:06</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -4246,58 +3796,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>15799</v>
+        <v>5456</v>
       </c>
       <c r="L17" t="n">
-        <v>15799</v>
+        <v>5456</v>
       </c>
       <c r="M17" t="n">
-        <v>36837.25</v>
+        <v>36205.21</v>
       </c>
       <c r="N17" t="n">
-        <v>22102.35</v>
+        <v>21723.13</v>
       </c>
       <c r="O17" t="n">
-        <v>14734.9</v>
+        <v>14482.08</v>
       </c>
       <c r="P17" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R17" t="n">
-        <v>82.52</v>
+        <v>158.65</v>
       </c>
       <c r="S17" t="n">
-        <v>446.39</v>
+        <v>228.21</v>
       </c>
       <c r="T17" t="n">
-        <v>47.71</v>
+        <v>26.66</v>
       </c>
       <c r="U17" t="n">
-        <v>267.84</v>
+        <v>136.93</v>
       </c>
       <c r="V17" t="n">
-        <v>178.56</v>
+        <v>91.28</v>
       </c>
       <c r="W17" t="n">
-        <v>22.3</v>
+        <v>3.84</v>
       </c>
       <c r="X17" t="n">
-        <v>19.62</v>
+        <v>22.17</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.52</v>
+        <v>158.65</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-05-08 14:42:56</t>
+          <t>2026-05-08 15:48:58</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4307,7 +3857,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.483</t>
+          <t>Mouse session - Score: 0.598</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4335,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14:42:56</t>
+          <t>15:48:58</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4344,58 +3894,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>5906</v>
+        <v>27037</v>
       </c>
       <c r="L18" t="n">
-        <v>5906</v>
+        <v>27037</v>
       </c>
       <c r="M18" t="n">
-        <v>25115.63</v>
+        <v>13690.3</v>
       </c>
       <c r="N18" t="n">
-        <v>15069.38</v>
+        <v>8214.18</v>
       </c>
       <c r="O18" t="n">
-        <v>10046.25</v>
+        <v>5476.12</v>
       </c>
       <c r="P18" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="R18" t="n">
-        <v>101.62</v>
+        <v>38.56</v>
       </c>
       <c r="S18" t="n">
-        <v>247.16</v>
+        <v>355</v>
       </c>
       <c r="T18" t="n">
-        <v>41.44</v>
+        <v>24.62</v>
       </c>
       <c r="U18" t="n">
-        <v>148.3</v>
+        <v>213</v>
       </c>
       <c r="V18" t="n">
-        <v>98.87</v>
+        <v>142</v>
       </c>
       <c r="W18" t="n">
-        <v>14.77</v>
+        <v>3.78</v>
       </c>
       <c r="X18" t="n">
-        <v>17.73</v>
+        <v>27.16</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.62</v>
+        <v>38.56</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.483</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-05-08 09:24:30</t>
+          <t>2026-05-08 12:57:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4405,7 +3955,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.631</t>
+          <t>Mouse session - Score: 0.555</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4433,7 +3983,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>09:24:30</t>
+          <t>12:57:36</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4442,58 +3992,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>17501</v>
+        <v>5206</v>
       </c>
       <c r="L19" t="n">
-        <v>17501</v>
+        <v>5206</v>
       </c>
       <c r="M19" t="n">
-        <v>20169.12</v>
+        <v>22769.19</v>
       </c>
       <c r="N19" t="n">
-        <v>12101.47</v>
+        <v>13661.52</v>
       </c>
       <c r="O19" t="n">
-        <v>8067.65</v>
+        <v>9107.68</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>46.31</v>
+        <v>136.84</v>
       </c>
       <c r="S19" t="n">
-        <v>435.49</v>
+        <v>166.39</v>
       </c>
       <c r="T19" t="n">
-        <v>48.12</v>
+        <v>30.16</v>
       </c>
       <c r="U19" t="n">
-        <v>261.29</v>
+        <v>99.83</v>
       </c>
       <c r="V19" t="n">
-        <v>174.19</v>
+        <v>66.56</v>
       </c>
       <c r="W19" t="n">
-        <v>25.04</v>
+        <v>23.48</v>
       </c>
       <c r="X19" t="n">
-        <v>9.460000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.31</v>
+        <v>136.84</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.631</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-05-10 14:54:24</t>
+          <t>2026-05-09 12:24:06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4503,7 +4053,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.466</t>
+          <t>Mouse session - Score: 0.498</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4513,7 +4063,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260510_000</t>
+          <t>MOUSE_20260509_000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4526,12 +4076,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14:54:24</t>
+          <t>12:24:06</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4540,58 +4090,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>8514</v>
+        <v>20285</v>
       </c>
       <c r="L20" t="n">
-        <v>8514</v>
+        <v>20285</v>
       </c>
       <c r="M20" t="n">
-        <v>25751.17</v>
+        <v>25444.08</v>
       </c>
       <c r="N20" t="n">
-        <v>15450.7</v>
+        <v>15266.45</v>
       </c>
       <c r="O20" t="n">
-        <v>10300.47</v>
+        <v>10177.63</v>
       </c>
       <c r="P20" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="Q20" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R20" t="n">
-        <v>119.06</v>
+        <v>63.58</v>
       </c>
       <c r="S20" t="n">
-        <v>216.29</v>
+        <v>400.18</v>
       </c>
       <c r="T20" t="n">
-        <v>47.36</v>
+        <v>21.11</v>
       </c>
       <c r="U20" t="n">
-        <v>129.77</v>
+        <v>240.11</v>
       </c>
       <c r="V20" t="n">
-        <v>86.51000000000001</v>
+        <v>160.07</v>
       </c>
       <c r="W20" t="n">
-        <v>2.68</v>
+        <v>12.39</v>
       </c>
       <c r="X20" t="n">
-        <v>23.48</v>
+        <v>24.66</v>
       </c>
       <c r="Y20" t="n">
-        <v>119.06</v>
+        <v>63.58</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.466</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-05-10 17:07:55</t>
+          <t>2026-05-09 16:41:54</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4601,7 +4151,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.581</t>
+          <t>Mouse session - Score: 0.602</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4611,7 +4161,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260510_001</t>
+          <t>MOUSE_20260509_001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4624,12 +4174,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17:07:55</t>
+          <t>16:41:54</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4638,58 +4188,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>8795</v>
+        <v>28734</v>
       </c>
       <c r="L21" t="n">
-        <v>8795</v>
+        <v>28734</v>
       </c>
       <c r="M21" t="n">
-        <v>27992.23</v>
+        <v>20412.61</v>
       </c>
       <c r="N21" t="n">
-        <v>16795.34</v>
+        <v>12247.57</v>
       </c>
       <c r="O21" t="n">
-        <v>11196.89</v>
+        <v>8165.04</v>
       </c>
       <c r="P21" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R21" t="n">
-        <v>70.51000000000001</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="S21" t="n">
-        <v>397</v>
+        <v>296.14</v>
       </c>
       <c r="T21" t="n">
-        <v>32.48</v>
+        <v>16.05</v>
       </c>
       <c r="U21" t="n">
-        <v>238.2</v>
+        <v>177.68</v>
       </c>
       <c r="V21" t="n">
-        <v>158.8</v>
+        <v>118.45</v>
       </c>
       <c r="W21" t="n">
-        <v>26.73</v>
+        <v>8.51</v>
       </c>
       <c r="X21" t="n">
-        <v>20.09</v>
+        <v>26.06</v>
       </c>
       <c r="Y21" t="n">
-        <v>70.51000000000001</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.581</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-05-10 16:59:13</t>
+          <t>2026-05-09 10:23:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4699,7 +4249,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.618</t>
+          <t>Mouse session - Score: 0.608</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4709,7 +4259,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260510_002</t>
+          <t>MOUSE_20260509_002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4722,12 +4272,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16:59:13</t>
+          <t>10:23:34</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4736,58 +4286,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>6496</v>
+        <v>14519</v>
       </c>
       <c r="L22" t="n">
-        <v>6496</v>
+        <v>14519</v>
       </c>
       <c r="M22" t="n">
-        <v>35216.26</v>
+        <v>32320.86</v>
       </c>
       <c r="N22" t="n">
-        <v>21129.75</v>
+        <v>19392.52</v>
       </c>
       <c r="O22" t="n">
-        <v>14086.5</v>
+        <v>12928.34</v>
       </c>
       <c r="P22" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R22" t="n">
-        <v>165.95</v>
+        <v>65.8</v>
       </c>
       <c r="S22" t="n">
-        <v>212.21</v>
+        <v>491.19</v>
       </c>
       <c r="T22" t="n">
-        <v>40.31</v>
+        <v>23.41</v>
       </c>
       <c r="U22" t="n">
-        <v>127.33</v>
+        <v>294.71</v>
       </c>
       <c r="V22" t="n">
-        <v>84.88</v>
+        <v>196.47</v>
       </c>
       <c r="W22" t="n">
-        <v>6.74</v>
+        <v>3.21</v>
       </c>
       <c r="X22" t="n">
-        <v>16.71</v>
+        <v>6.89</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.95</v>
+        <v>65.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.618</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-05-11 13:38:10</t>
+          <t>2026-05-11 09:00:01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4797,7 +4347,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.913</t>
+          <t>Mouse session - Score: 0.457</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4812,11 +4362,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4825,7 +4375,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13:38:10</t>
+          <t>09:00:01</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4834,58 +4384,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>12026</v>
+        <v>26361</v>
       </c>
       <c r="L23" t="n">
-        <v>12026</v>
+        <v>26361</v>
       </c>
       <c r="M23" t="n">
-        <v>34006.78</v>
+        <v>20229.42</v>
       </c>
       <c r="N23" t="n">
-        <v>20404.07</v>
+        <v>12137.65</v>
       </c>
       <c r="O23" t="n">
-        <v>13602.71</v>
+        <v>8091.77</v>
       </c>
       <c r="P23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>39.2</v>
+        <v>103</v>
       </c>
       <c r="S23" t="n">
-        <v>867.46</v>
+        <v>196.4</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5</v>
+        <v>23.82</v>
       </c>
       <c r="U23" t="n">
-        <v>520.48</v>
+        <v>117.84</v>
       </c>
       <c r="V23" t="n">
-        <v>346.98</v>
+        <v>78.56</v>
       </c>
       <c r="W23" t="n">
-        <v>22.09</v>
+        <v>25.24</v>
       </c>
       <c r="X23" t="n">
-        <v>24.34</v>
+        <v>19.45</v>
       </c>
       <c r="Y23" t="n">
-        <v>39.2</v>
+        <v>103</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.913</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-05-11 15:56:41</t>
+          <t>2026-05-11 12:34:35</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4895,7 +4445,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.584</t>
+          <t>Mouse session - Score: 0.516</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4923,7 +4473,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15:56:41</t>
+          <t>12:34:35</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4932,58 +4482,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>22339</v>
+        <v>17415</v>
       </c>
       <c r="L24" t="n">
-        <v>22339</v>
+        <v>17415</v>
       </c>
       <c r="M24" t="n">
-        <v>7993.09</v>
+        <v>21171.55</v>
       </c>
       <c r="N24" t="n">
-        <v>4795.86</v>
+        <v>12702.93</v>
       </c>
       <c r="O24" t="n">
-        <v>3197.24</v>
+        <v>8468.620000000001</v>
       </c>
       <c r="P24" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="Q24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>96.45999999999999</v>
+        <v>136.89</v>
       </c>
       <c r="S24" t="n">
-        <v>82.87</v>
+        <v>154.66</v>
       </c>
       <c r="T24" t="n">
-        <v>34.69</v>
+        <v>39.24</v>
       </c>
       <c r="U24" t="n">
-        <v>49.72</v>
+        <v>92.8</v>
       </c>
       <c r="V24" t="n">
-        <v>33.15</v>
+        <v>61.86</v>
       </c>
       <c r="W24" t="n">
-        <v>21.66</v>
+        <v>21.67</v>
       </c>
       <c r="X24" t="n">
-        <v>24.13</v>
+        <v>4.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>96.45999999999999</v>
+        <v>136.89</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.584</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-05-11 17:37:32</t>
+          <t>2026-05-11 09:06:03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4993,7 +4543,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.639</t>
+          <t>Mouse session - Score: 0.591</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5021,7 +4571,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17:37:32</t>
+          <t>09:06:03</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5030,58 +4580,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>27080</v>
+        <v>20387</v>
       </c>
       <c r="L25" t="n">
-        <v>27080</v>
+        <v>20387</v>
       </c>
       <c r="M25" t="n">
-        <v>18400.24</v>
+        <v>27608.98</v>
       </c>
       <c r="N25" t="n">
-        <v>11040.15</v>
+        <v>16565.39</v>
       </c>
       <c r="O25" t="n">
-        <v>7360.1</v>
+        <v>11043.59</v>
       </c>
       <c r="P25" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="R25" t="n">
-        <v>41.11</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>447.55</v>
+        <v>318.81</v>
       </c>
       <c r="T25" t="n">
-        <v>37.04</v>
+        <v>7.26</v>
       </c>
       <c r="U25" t="n">
-        <v>268.53</v>
+        <v>191.29</v>
       </c>
       <c r="V25" t="n">
-        <v>179.02</v>
+        <v>127.53</v>
       </c>
       <c r="W25" t="n">
-        <v>12.91</v>
+        <v>10.73</v>
       </c>
       <c r="X25" t="n">
-        <v>3.24</v>
+        <v>12.37</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.11</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.639</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-05-12 13:06:34</t>
+          <t>2026-05-12 17:10:31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5091,7 +4641,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.506</t>
+          <t>Mouse session - Score: 0.468</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5119,7 +4669,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13:06:34</t>
+          <t>17:10:31</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5128,58 +4678,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>22594</v>
+        <v>13594</v>
       </c>
       <c r="L26" t="n">
-        <v>22594</v>
+        <v>13594</v>
       </c>
       <c r="M26" t="n">
-        <v>32715.47</v>
+        <v>24190.17</v>
       </c>
       <c r="N26" t="n">
-        <v>19629.28</v>
+        <v>14514.1</v>
       </c>
       <c r="O26" t="n">
-        <v>13086.19</v>
+        <v>9676.07</v>
       </c>
       <c r="P26" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R26" t="n">
-        <v>68.34999999999999</v>
+        <v>129.18</v>
       </c>
       <c r="S26" t="n">
-        <v>478.61</v>
+        <v>187.26</v>
       </c>
       <c r="T26" t="n">
-        <v>38.04</v>
+        <v>15.22</v>
       </c>
       <c r="U26" t="n">
-        <v>287.17</v>
+        <v>112.35</v>
       </c>
       <c r="V26" t="n">
-        <v>191.44</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="W26" t="n">
-        <v>10.51</v>
+        <v>23.84</v>
       </c>
       <c r="X26" t="n">
-        <v>6.7</v>
+        <v>19.23</v>
       </c>
       <c r="Y26" t="n">
-        <v>68.34999999999999</v>
+        <v>129.18</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.506</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-05-12 14:52:06</t>
+          <t>2026-05-12 10:17:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5189,7 +4739,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.451</t>
+          <t>Mouse session - Score: 0.593</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5217,7 +4767,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14:52:06</t>
+          <t>10:17:34</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5226,58 +4776,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>22990</v>
+        <v>9654</v>
       </c>
       <c r="L27" t="n">
-        <v>22990</v>
+        <v>9654</v>
       </c>
       <c r="M27" t="n">
-        <v>33370.35</v>
+        <v>12490</v>
       </c>
       <c r="N27" t="n">
-        <v>20022.21</v>
+        <v>7494</v>
       </c>
       <c r="O27" t="n">
-        <v>13348.14</v>
+        <v>4996</v>
       </c>
       <c r="P27" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R27" t="n">
-        <v>155.88</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>214.08</v>
+        <v>182.44</v>
       </c>
       <c r="T27" t="n">
-        <v>16.78</v>
+        <v>35.59</v>
       </c>
       <c r="U27" t="n">
-        <v>128.45</v>
+        <v>109.47</v>
       </c>
       <c r="V27" t="n">
-        <v>85.63</v>
+        <v>72.98</v>
       </c>
       <c r="W27" t="n">
-        <v>11.41</v>
+        <v>11.37</v>
       </c>
       <c r="X27" t="n">
-        <v>4.26</v>
+        <v>29.18</v>
       </c>
       <c r="Y27" t="n">
-        <v>155.88</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.451</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-05-12 16:09:42</t>
+          <t>2026-05-12 10:42:42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5287,7 +4837,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.646</t>
+          <t>Mouse session - Score: 0.546</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5315,7 +4865,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16:09:42</t>
+          <t>10:42:42</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5324,58 +4874,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>12840</v>
+        <v>29103</v>
       </c>
       <c r="L28" t="n">
-        <v>12840</v>
+        <v>29103</v>
       </c>
       <c r="M28" t="n">
-        <v>29939.96</v>
+        <v>20874.09</v>
       </c>
       <c r="N28" t="n">
-        <v>17963.98</v>
+        <v>12524.45</v>
       </c>
       <c r="O28" t="n">
-        <v>11975.99</v>
+        <v>8349.639999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R28" t="n">
-        <v>127.61</v>
+        <v>107.81</v>
       </c>
       <c r="S28" t="n">
-        <v>234.62</v>
+        <v>193.62</v>
       </c>
       <c r="T28" t="n">
-        <v>22.75</v>
+        <v>21.08</v>
       </c>
       <c r="U28" t="n">
-        <v>140.77</v>
+        <v>116.17</v>
       </c>
       <c r="V28" t="n">
-        <v>93.84999999999999</v>
+        <v>77.45</v>
       </c>
       <c r="W28" t="n">
-        <v>18.12</v>
+        <v>15.8</v>
       </c>
       <c r="X28" t="n">
-        <v>8.43</v>
+        <v>2.44</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.61</v>
+        <v>107.81</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.646</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-05-13 17:19:26</t>
+          <t>2026-05-13 12:43:54</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5385,7 +4935,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.558</t>
+          <t>Mouse session - Score: 0.488</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5413,7 +4963,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17:19:26</t>
+          <t>12:43:54</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5422,58 +4972,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>15757</v>
+        <v>16910</v>
       </c>
       <c r="L29" t="n">
-        <v>15757</v>
+        <v>16910</v>
       </c>
       <c r="M29" t="n">
-        <v>28791.38</v>
+        <v>24567.78</v>
       </c>
       <c r="N29" t="n">
-        <v>17274.83</v>
+        <v>14740.67</v>
       </c>
       <c r="O29" t="n">
-        <v>11516.55</v>
+        <v>9827.110000000001</v>
       </c>
       <c r="P29" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R29" t="n">
-        <v>89.04000000000001</v>
+        <v>162.4</v>
       </c>
       <c r="S29" t="n">
-        <v>323.36</v>
+        <v>151.28</v>
       </c>
       <c r="T29" t="n">
-        <v>27.11</v>
+        <v>39.72</v>
       </c>
       <c r="U29" t="n">
-        <v>194.02</v>
+        <v>90.77</v>
       </c>
       <c r="V29" t="n">
-        <v>129.34</v>
+        <v>60.51</v>
       </c>
       <c r="W29" t="n">
-        <v>15.34</v>
+        <v>16.71</v>
       </c>
       <c r="X29" t="n">
-        <v>22.29</v>
+        <v>17.65</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.04000000000001</v>
+        <v>162.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-05-13 12:50:42</t>
+          <t>2026-05-13 10:58:37</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5483,7 +5033,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.526</t>
+          <t>Mouse session - Score: 0.601</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5511,7 +5061,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12:50:42</t>
+          <t>10:58:37</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5520,58 +5070,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>14772</v>
+        <v>5935</v>
       </c>
       <c r="L30" t="n">
-        <v>14772</v>
+        <v>5935</v>
       </c>
       <c r="M30" t="n">
-        <v>27461.21</v>
+        <v>30052.39</v>
       </c>
       <c r="N30" t="n">
-        <v>16476.73</v>
+        <v>18031.43</v>
       </c>
       <c r="O30" t="n">
-        <v>10984.48</v>
+        <v>12020.95</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q30" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R30" t="n">
-        <v>86.05</v>
+        <v>41.58</v>
       </c>
       <c r="S30" t="n">
-        <v>319.13</v>
+        <v>722.84</v>
       </c>
       <c r="T30" t="n">
-        <v>46.58</v>
+        <v>26.45</v>
       </c>
       <c r="U30" t="n">
-        <v>191.48</v>
+        <v>433.71</v>
       </c>
       <c r="V30" t="n">
-        <v>127.65</v>
+        <v>289.14</v>
       </c>
       <c r="W30" t="n">
-        <v>10.36</v>
+        <v>4.69</v>
       </c>
       <c r="X30" t="n">
-        <v>5.11</v>
+        <v>17.04</v>
       </c>
       <c r="Y30" t="n">
-        <v>86.05</v>
+        <v>41.58</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.526</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-05-13 14:08:00</t>
+          <t>2026-05-13 14:09:39</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5581,7 +5131,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.645</t>
+          <t>Mouse session - Score: 0.549</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5609,7 +5159,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>14:08:00</t>
+          <t>14:09:39</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5618,58 +5168,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>18332</v>
+        <v>27246</v>
       </c>
       <c r="L31" t="n">
-        <v>18332</v>
+        <v>27246</v>
       </c>
       <c r="M31" t="n">
-        <v>35256.88</v>
+        <v>31360.08</v>
       </c>
       <c r="N31" t="n">
-        <v>21154.13</v>
+        <v>18816.05</v>
       </c>
       <c r="O31" t="n">
-        <v>14102.75</v>
+        <v>12544.03</v>
       </c>
       <c r="P31" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R31" t="n">
-        <v>132.97</v>
+        <v>57.16</v>
       </c>
       <c r="S31" t="n">
-        <v>265.15</v>
+        <v>548.64</v>
       </c>
       <c r="T31" t="n">
-        <v>39.25</v>
+        <v>16.36</v>
       </c>
       <c r="U31" t="n">
-        <v>159.09</v>
+        <v>329.18</v>
       </c>
       <c r="V31" t="n">
-        <v>106.06</v>
+        <v>219.46</v>
       </c>
       <c r="W31" t="n">
-        <v>22.05</v>
+        <v>4.04</v>
       </c>
       <c r="X31" t="n">
-        <v>24.48</v>
+        <v>16.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.97</v>
+        <v>57.16</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.645</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-05-14 12:55:36</t>
+          <t>2026-05-14 16:52:58</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5679,7 +5229,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.646</t>
+          <t>Mouse session - Score: 0.550</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5707,7 +5257,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12:55:36</t>
+          <t>16:52:58</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5716,58 +5266,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>22143</v>
+        <v>6844</v>
       </c>
       <c r="L32" t="n">
-        <v>22143</v>
+        <v>6844</v>
       </c>
       <c r="M32" t="n">
-        <v>35519.8</v>
+        <v>14624.52</v>
       </c>
       <c r="N32" t="n">
-        <v>21311.88</v>
+        <v>8774.709999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>14207.92</v>
+        <v>5849.81</v>
       </c>
       <c r="P32" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R32" t="n">
-        <v>131.84</v>
+        <v>147.75</v>
       </c>
       <c r="S32" t="n">
-        <v>269.41</v>
+        <v>98.98</v>
       </c>
       <c r="T32" t="n">
-        <v>39.11</v>
+        <v>40.07</v>
       </c>
       <c r="U32" t="n">
-        <v>161.65</v>
+        <v>59.39</v>
       </c>
       <c r="V32" t="n">
-        <v>107.76</v>
+        <v>39.59</v>
       </c>
       <c r="W32" t="n">
-        <v>15.41</v>
+        <v>13.76</v>
       </c>
       <c r="X32" t="n">
-        <v>13.46</v>
+        <v>13.7</v>
       </c>
       <c r="Y32" t="n">
-        <v>131.84</v>
+        <v>147.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.646</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-05-14 15:48:05</t>
+          <t>2026-05-14 17:42:08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5777,7 +5327,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.551</t>
+          <t>Mouse session - Score: 0.608</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5805,7 +5355,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>15:48:05</t>
+          <t>17:42:08</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5814,58 +5364,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>6318</v>
+        <v>25642</v>
       </c>
       <c r="L33" t="n">
-        <v>6318</v>
+        <v>25642</v>
       </c>
       <c r="M33" t="n">
-        <v>29352.38</v>
+        <v>33616.39</v>
       </c>
       <c r="N33" t="n">
-        <v>17611.43</v>
+        <v>20169.83</v>
       </c>
       <c r="O33" t="n">
-        <v>11740.95</v>
+        <v>13446.56</v>
       </c>
       <c r="P33" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q33" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="R33" t="n">
-        <v>74.02</v>
+        <v>122.31</v>
       </c>
       <c r="S33" t="n">
-        <v>396.53</v>
+        <v>274.85</v>
       </c>
       <c r="T33" t="n">
-        <v>23.85</v>
+        <v>19.33</v>
       </c>
       <c r="U33" t="n">
-        <v>237.92</v>
+        <v>164.91</v>
       </c>
       <c r="V33" t="n">
-        <v>158.61</v>
+        <v>109.94</v>
       </c>
       <c r="W33" t="n">
-        <v>27.41</v>
+        <v>28.2</v>
       </c>
       <c r="X33" t="n">
-        <v>28.46</v>
+        <v>4.87</v>
       </c>
       <c r="Y33" t="n">
-        <v>74.02</v>
+        <v>122.31</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.551</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-05-14 09:36:12</t>
+          <t>2026-05-14 16:18:20</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5875,7 +5425,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.490</t>
+          <t>Mouse session - Score: 0.642</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5903,7 +5453,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09:36:12</t>
+          <t>16:18:20</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5912,58 +5462,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>5968</v>
+        <v>29416</v>
       </c>
       <c r="L34" t="n">
-        <v>5968</v>
+        <v>29416</v>
       </c>
       <c r="M34" t="n">
-        <v>15159.17</v>
+        <v>5060.36</v>
       </c>
       <c r="N34" t="n">
-        <v>9095.5</v>
+        <v>3036.22</v>
       </c>
       <c r="O34" t="n">
-        <v>6063.67</v>
+        <v>2024.14</v>
       </c>
       <c r="P34" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Q34" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="R34" t="n">
-        <v>147.19</v>
+        <v>159.92</v>
       </c>
       <c r="S34" t="n">
-        <v>102.99</v>
+        <v>31.64</v>
       </c>
       <c r="T34" t="n">
-        <v>9.34</v>
+        <v>44.22</v>
       </c>
       <c r="U34" t="n">
-        <v>61.79</v>
+        <v>18.99</v>
       </c>
       <c r="V34" t="n">
-        <v>41.2</v>
+        <v>12.66</v>
       </c>
       <c r="W34" t="n">
-        <v>2.46</v>
+        <v>15.41</v>
       </c>
       <c r="X34" t="n">
-        <v>29.78</v>
+        <v>7.72</v>
       </c>
       <c r="Y34" t="n">
-        <v>147.19</v>
+        <v>159.92</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.49</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-05-15 11:05:15</t>
+          <t>2026-05-15 09:21:52</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5973,7 +5523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.877</t>
+          <t>Mouse session - Score: 0.539</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5988,11 +5538,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -6001,7 +5551,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11:05:15</t>
+          <t>09:21:52</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6010,58 +5560,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>29614</v>
+        <v>12562</v>
       </c>
       <c r="L35" t="n">
-        <v>29614</v>
+        <v>12562</v>
       </c>
       <c r="M35" t="n">
-        <v>11573.3</v>
+        <v>26896.8</v>
       </c>
       <c r="N35" t="n">
-        <v>6943.98</v>
+        <v>16138.08</v>
       </c>
       <c r="O35" t="n">
-        <v>4629.32</v>
+        <v>10758.72</v>
       </c>
       <c r="P35" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q35" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="R35" t="n">
-        <v>59.74</v>
+        <v>170.28</v>
       </c>
       <c r="S35" t="n">
-        <v>193.74</v>
+        <v>157.96</v>
       </c>
       <c r="T35" t="n">
-        <v>32.68</v>
+        <v>15.3</v>
       </c>
       <c r="U35" t="n">
-        <v>116.24</v>
+        <v>94.77</v>
       </c>
       <c r="V35" t="n">
-        <v>77.5</v>
+        <v>63.18</v>
       </c>
       <c r="W35" t="n">
-        <v>22.89</v>
+        <v>10.29</v>
       </c>
       <c r="X35" t="n">
-        <v>18.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>59.74</v>
+        <v>170.28</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.877</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-05-15 13:51:50</t>
+          <t>2026-05-15 16:54:35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6071,7 +5621,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.949</t>
+          <t>Mouse session - Score: 0.592</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6086,11 +5636,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -6099,7 +5649,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>13:51:50</t>
+          <t>16:54:35</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6108,58 +5658,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>16444</v>
+        <v>9883</v>
       </c>
       <c r="L36" t="n">
-        <v>16444</v>
+        <v>9883</v>
       </c>
       <c r="M36" t="n">
-        <v>37708.36</v>
+        <v>32872.89</v>
       </c>
       <c r="N36" t="n">
-        <v>22625.01</v>
+        <v>19723.73</v>
       </c>
       <c r="O36" t="n">
-        <v>15083.34</v>
+        <v>13149.16</v>
       </c>
       <c r="P36" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R36" t="n">
-        <v>69.72</v>
+        <v>158.95</v>
       </c>
       <c r="S36" t="n">
-        <v>540.87</v>
+        <v>206.82</v>
       </c>
       <c r="T36" t="n">
-        <v>25.27</v>
+        <v>42.75</v>
       </c>
       <c r="U36" t="n">
-        <v>324.52</v>
+        <v>124.09</v>
       </c>
       <c r="V36" t="n">
-        <v>216.35</v>
+        <v>82.73</v>
       </c>
       <c r="W36" t="n">
-        <v>2.32</v>
+        <v>11.47</v>
       </c>
       <c r="X36" t="n">
-        <v>16.86</v>
+        <v>10.53</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.72</v>
+        <v>158.95</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.949</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-05-15 11:37:01</t>
+          <t>2026-05-15 15:43:49</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6169,7 +5719,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.947</t>
+          <t>Mouse session - Score: 0.553</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6184,11 +5734,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -6197,7 +5747,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>11:37:01</t>
+          <t>15:43:49</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6206,58 +5756,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>12034</v>
+        <v>25168</v>
       </c>
       <c r="L37" t="n">
-        <v>12034</v>
+        <v>25168</v>
       </c>
       <c r="M37" t="n">
-        <v>19731.78</v>
+        <v>32791.09</v>
       </c>
       <c r="N37" t="n">
-        <v>11839.07</v>
+        <v>19674.65</v>
       </c>
       <c r="O37" t="n">
-        <v>7892.71</v>
+        <v>13116.44</v>
       </c>
       <c r="P37" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Q37" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R37" t="n">
-        <v>94.11</v>
+        <v>124.82</v>
       </c>
       <c r="S37" t="n">
-        <v>209.67</v>
+        <v>262.7</v>
       </c>
       <c r="T37" t="n">
-        <v>26.21</v>
+        <v>12.74</v>
       </c>
       <c r="U37" t="n">
-        <v>125.8</v>
+        <v>157.62</v>
       </c>
       <c r="V37" t="n">
-        <v>83.87</v>
+        <v>105.08</v>
       </c>
       <c r="W37" t="n">
-        <v>9.84</v>
+        <v>7.47</v>
       </c>
       <c r="X37" t="n">
-        <v>7.38</v>
+        <v>17.62</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.11</v>
+        <v>124.82</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.947</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-05-18 14:25:23</t>
+          <t>2026-05-17 17:21:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6267,7 +5817,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.607</t>
+          <t>Mouse session - Score: 0.527</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6277,7 +5827,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20260518_000</t>
+          <t>MOUSE_20260517_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6290,12 +5840,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>14:25:23</t>
+          <t>17:21:30</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6304,58 +5854,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>20523</v>
+        <v>7787</v>
       </c>
       <c r="L38" t="n">
-        <v>20523</v>
+        <v>7787</v>
       </c>
       <c r="M38" t="n">
-        <v>8787.360000000001</v>
+        <v>25972.8</v>
       </c>
       <c r="N38" t="n">
-        <v>5272.42</v>
+        <v>15583.68</v>
       </c>
       <c r="O38" t="n">
-        <v>3514.94</v>
+        <v>10389.12</v>
       </c>
       <c r="P38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q38" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R38" t="n">
-        <v>141.3</v>
+        <v>47.68</v>
       </c>
       <c r="S38" t="n">
-        <v>62.19</v>
+        <v>544.77</v>
       </c>
       <c r="T38" t="n">
-        <v>41.52</v>
+        <v>18.55</v>
       </c>
       <c r="U38" t="n">
-        <v>37.31</v>
+        <v>326.86</v>
       </c>
       <c r="V38" t="n">
-        <v>24.88</v>
+        <v>217.91</v>
       </c>
       <c r="W38" t="n">
-        <v>29.77</v>
+        <v>9.02</v>
       </c>
       <c r="X38" t="n">
-        <v>22.83</v>
+        <v>13.95</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.3</v>
+        <v>47.68</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.607</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-05-18 10:00:26</t>
+          <t>2026-05-17 15:00:27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6365,7 +5915,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.567</t>
+          <t>Mouse session - Score: 0.511</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6375,7 +5925,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20260518_001</t>
+          <t>MOUSE_20260517_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6388,12 +5938,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10:00:26</t>
+          <t>15:00:27</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6402,58 +5952,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>18248</v>
+        <v>28995</v>
       </c>
       <c r="L39" t="n">
-        <v>18248</v>
+        <v>28995</v>
       </c>
       <c r="M39" t="n">
-        <v>28635.49</v>
+        <v>30959.57</v>
       </c>
       <c r="N39" t="n">
-        <v>17181.29</v>
+        <v>18575.74</v>
       </c>
       <c r="O39" t="n">
-        <v>11454.2</v>
+        <v>12383.83</v>
       </c>
       <c r="P39" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Q39" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R39" t="n">
-        <v>90.09</v>
+        <v>79.93000000000001</v>
       </c>
       <c r="S39" t="n">
-        <v>317.85</v>
+        <v>387.35</v>
       </c>
       <c r="T39" t="n">
-        <v>40.76</v>
+        <v>43.73</v>
       </c>
       <c r="U39" t="n">
-        <v>190.71</v>
+        <v>232.41</v>
       </c>
       <c r="V39" t="n">
-        <v>127.14</v>
+        <v>154.94</v>
       </c>
       <c r="W39" t="n">
-        <v>14.33</v>
+        <v>14.57</v>
       </c>
       <c r="X39" t="n">
-        <v>28.87</v>
+        <v>28.28</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.09</v>
+        <v>79.93000000000001</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-05-18 09:26:57</t>
+          <t>2026-05-17 17:14:06</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6463,7 +6013,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.464</t>
+          <t>Mouse session - Score: 0.482</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6473,7 +6023,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20260518_002</t>
+          <t>MOUSE_20260517_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6486,12 +6036,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>09:26:57</t>
+          <t>17:14:06</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6500,58 +6050,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>25781</v>
+        <v>15396</v>
       </c>
       <c r="L40" t="n">
-        <v>25781</v>
+        <v>15396</v>
       </c>
       <c r="M40" t="n">
-        <v>8653.49</v>
+        <v>38744.33</v>
       </c>
       <c r="N40" t="n">
-        <v>5192.09</v>
+        <v>23246.6</v>
       </c>
       <c r="O40" t="n">
-        <v>3461.4</v>
+        <v>15497.73</v>
       </c>
       <c r="P40" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q40" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R40" t="n">
-        <v>39.65</v>
+        <v>126.93</v>
       </c>
       <c r="S40" t="n">
-        <v>218.25</v>
+        <v>305.25</v>
       </c>
       <c r="T40" t="n">
-        <v>21.34</v>
+        <v>15.68</v>
       </c>
       <c r="U40" t="n">
-        <v>130.95</v>
+        <v>183.15</v>
       </c>
       <c r="V40" t="n">
-        <v>87.3</v>
+        <v>122.1</v>
       </c>
       <c r="W40" t="n">
-        <v>21.15</v>
+        <v>7.29</v>
       </c>
       <c r="X40" t="n">
-        <v>20.86</v>
+        <v>5.89</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.65</v>
+        <v>126.93</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.464</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-05-19 17:41:38</t>
+          <t>2026-05-18 09:35:26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6561,7 +6111,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.456</t>
+          <t>Mouse session - Score: 0.451</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6571,7 +6121,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20260519_000</t>
+          <t>MOUSE_20260518_000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6584,12 +6134,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>17:41:38</t>
+          <t>09:35:26</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6598,58 +6148,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>17185</v>
+        <v>8381</v>
       </c>
       <c r="L41" t="n">
-        <v>17185</v>
+        <v>8381</v>
       </c>
       <c r="M41" t="n">
-        <v>36752.62</v>
+        <v>6793.79</v>
       </c>
       <c r="N41" t="n">
-        <v>22051.57</v>
+        <v>4076.28</v>
       </c>
       <c r="O41" t="n">
-        <v>14701.05</v>
+        <v>2717.52</v>
       </c>
       <c r="P41" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q41" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R41" t="n">
-        <v>107.83</v>
+        <v>72.33</v>
       </c>
       <c r="S41" t="n">
-        <v>340.85</v>
+        <v>93.93000000000001</v>
       </c>
       <c r="T41" t="n">
-        <v>46.71</v>
+        <v>32.46</v>
       </c>
       <c r="U41" t="n">
-        <v>204.51</v>
+        <v>56.36</v>
       </c>
       <c r="V41" t="n">
-        <v>136.34</v>
+        <v>37.57</v>
       </c>
       <c r="W41" t="n">
-        <v>6.33</v>
+        <v>21.79</v>
       </c>
       <c r="X41" t="n">
-        <v>12.37</v>
+        <v>12.98</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.83</v>
+        <v>72.33</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.456</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-05-19 14:00:15</t>
+          <t>2026-05-18 14:54:40</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6659,7 +6209,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.517</t>
+          <t>Mouse session - Score: 0.608</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6669,7 +6219,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20260519_001</t>
+          <t>MOUSE_20260518_001</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6682,12 +6232,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>14:00:15</t>
+          <t>14:54:40</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6696,58 +6246,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>20076</v>
+        <v>10753</v>
       </c>
       <c r="L42" t="n">
-        <v>20076</v>
+        <v>10753</v>
       </c>
       <c r="M42" t="n">
-        <v>21639.68</v>
+        <v>12377.72</v>
       </c>
       <c r="N42" t="n">
-        <v>12983.81</v>
+        <v>7426.63</v>
       </c>
       <c r="O42" t="n">
-        <v>8655.870000000001</v>
+        <v>4951.09</v>
       </c>
       <c r="P42" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Q42" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R42" t="n">
-        <v>70.98999999999999</v>
+        <v>142.22</v>
       </c>
       <c r="S42" t="n">
-        <v>304.85</v>
+        <v>87.03</v>
       </c>
       <c r="T42" t="n">
-        <v>7.91</v>
+        <v>47.82</v>
       </c>
       <c r="U42" t="n">
-        <v>182.91</v>
+        <v>52.22</v>
       </c>
       <c r="V42" t="n">
-        <v>121.94</v>
+        <v>34.81</v>
       </c>
       <c r="W42" t="n">
-        <v>7</v>
+        <v>19.53</v>
       </c>
       <c r="X42" t="n">
-        <v>9.52</v>
+        <v>12.59</v>
       </c>
       <c r="Y42" t="n">
-        <v>70.98999999999999</v>
+        <v>142.22</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.517</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-05-19 12:59:14</t>
+          <t>2026-05-18 14:17:49</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6757,7 +6307,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.605</t>
+          <t>Mouse session - Score: 0.466</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6767,7 +6317,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20260519_002</t>
+          <t>MOUSE_20260518_002</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6780,12 +6330,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>12:59:14</t>
+          <t>14:17:49</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6794,58 +6344,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>14939</v>
+        <v>23759</v>
       </c>
       <c r="L43" t="n">
-        <v>14939</v>
+        <v>23759</v>
       </c>
       <c r="M43" t="n">
-        <v>35940.21</v>
+        <v>28901.83</v>
       </c>
       <c r="N43" t="n">
-        <v>21564.12</v>
+        <v>17341.1</v>
       </c>
       <c r="O43" t="n">
-        <v>14376.08</v>
+        <v>11560.73</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>88.44</v>
+        <v>179.96</v>
       </c>
       <c r="S43" t="n">
-        <v>406.37</v>
+        <v>160.6</v>
       </c>
       <c r="T43" t="n">
-        <v>43.87</v>
+        <v>46.42</v>
       </c>
       <c r="U43" t="n">
-        <v>243.82</v>
+        <v>96.36</v>
       </c>
       <c r="V43" t="n">
-        <v>162.55</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="W43" t="n">
-        <v>9.300000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="X43" t="n">
-        <v>8.82</v>
+        <v>12.03</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.44</v>
+        <v>179.96</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.605</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-05-20 13:26:14</t>
+          <t>2026-05-19 11:04:46</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6855,7 +6405,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.631</t>
+          <t>Mouse session - Score: 0.595</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6865,7 +6415,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20260520_000</t>
+          <t>MOUSE_20260519_000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6878,12 +6428,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>13:26:14</t>
+          <t>11:04:46</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6892,58 +6442,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>22575</v>
+        <v>10462</v>
       </c>
       <c r="L44" t="n">
-        <v>22575</v>
+        <v>10462</v>
       </c>
       <c r="M44" t="n">
-        <v>11384.69</v>
+        <v>21105.63</v>
       </c>
       <c r="N44" t="n">
-        <v>6830.81</v>
+        <v>12663.38</v>
       </c>
       <c r="O44" t="n">
-        <v>4553.87</v>
+        <v>8442.25</v>
       </c>
       <c r="P44" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="Q44" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R44" t="n">
-        <v>31.52</v>
+        <v>131.52</v>
       </c>
       <c r="S44" t="n">
-        <v>361.23</v>
+        <v>160.48</v>
       </c>
       <c r="T44" t="n">
-        <v>20.15</v>
+        <v>17.06</v>
       </c>
       <c r="U44" t="n">
-        <v>216.74</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>144.49</v>
+        <v>64.19</v>
       </c>
       <c r="W44" t="n">
-        <v>7.14</v>
+        <v>11.42</v>
       </c>
       <c r="X44" t="n">
-        <v>10.82</v>
+        <v>12.98</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.52</v>
+        <v>131.52</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.631</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-05-20 12:54:05</t>
+          <t>2026-05-19 14:44:40</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6953,7 +6503,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.647</t>
+          <t>Mouse session - Score: 0.470</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6963,7 +6513,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20260520_001</t>
+          <t>MOUSE_20260519_001</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6976,12 +6526,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12:54:05</t>
+          <t>14:44:40</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6990,58 +6540,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>21914</v>
+        <v>18273</v>
       </c>
       <c r="L45" t="n">
-        <v>21914</v>
+        <v>18273</v>
       </c>
       <c r="M45" t="n">
-        <v>31792.88</v>
+        <v>31811.3</v>
       </c>
       <c r="N45" t="n">
-        <v>19075.73</v>
+        <v>19086.78</v>
       </c>
       <c r="O45" t="n">
-        <v>12717.15</v>
+        <v>12724.52</v>
       </c>
       <c r="P45" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R45" t="n">
-        <v>121.94</v>
+        <v>46.92</v>
       </c>
       <c r="S45" t="n">
-        <v>260.73</v>
+        <v>677.9299999999999</v>
       </c>
       <c r="T45" t="n">
-        <v>15.43</v>
+        <v>11.22</v>
       </c>
       <c r="U45" t="n">
-        <v>156.44</v>
+        <v>406.76</v>
       </c>
       <c r="V45" t="n">
-        <v>104.29</v>
+        <v>271.17</v>
       </c>
       <c r="W45" t="n">
-        <v>25.75</v>
+        <v>19.67</v>
       </c>
       <c r="X45" t="n">
-        <v>10.67</v>
+        <v>18.02</v>
       </c>
       <c r="Y45" t="n">
-        <v>121.94</v>
+        <v>46.92</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.647</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-05-20 09:25:42</t>
+          <t>2026-05-19 15:50:40</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -7051,7 +6601,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.599</t>
+          <t>Mouse session - Score: 0.465</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7061,7 +6611,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20260520_002</t>
+          <t>MOUSE_20260519_002</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7074,12 +6624,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>09:25:42</t>
+          <t>15:50:40</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7088,52 +6638,52 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>22514</v>
+        <v>6893</v>
       </c>
       <c r="L46" t="n">
-        <v>22514</v>
+        <v>6893</v>
       </c>
       <c r="M46" t="n">
-        <v>25637.9</v>
+        <v>5124.19</v>
       </c>
       <c r="N46" t="n">
-        <v>15382.74</v>
+        <v>3074.52</v>
       </c>
       <c r="O46" t="n">
-        <v>10255.16</v>
+        <v>2049.68</v>
       </c>
       <c r="P46" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R46" t="n">
-        <v>70.92</v>
+        <v>69.63</v>
       </c>
       <c r="S46" t="n">
-        <v>361.48</v>
+        <v>73.59</v>
       </c>
       <c r="T46" t="n">
-        <v>40.43</v>
+        <v>29.74</v>
       </c>
       <c r="U46" t="n">
-        <v>216.89</v>
+        <v>44.16</v>
       </c>
       <c r="V46" t="n">
-        <v>144.59</v>
+        <v>29.44</v>
       </c>
       <c r="W46" t="n">
-        <v>28.43</v>
+        <v>8.81</v>
       </c>
       <c r="X46" t="n">
-        <v>3.27</v>
+        <v>12.66</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.92</v>
+        <v>69.63</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.599</v>
+        <v>0.465</v>
       </c>
     </row>
   </sheetData>
@@ -7210,20 +6760,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-05-01 15:18:00</t>
+          <t>2026-05-01 11:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-05-01 21:12:25</t>
+          <t>2026-05-01 13:43:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21265</v>
+        <v>8010</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:54:00</t>
+          <t>02:13:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7240,7 +6790,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20260504_00</t>
+          <t>BROWSER_20260501_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7250,25 +6800,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-05-04 11:33:00</t>
+          <t>2026-05-01 09:13:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-05-04 17:26:06</t>
+          <t>2026-05-01 11:44:15</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21186</v>
+        <v>9075</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>05:53:00</t>
+          <t>02:31:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7280,7 +6830,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260505_00</t>
+          <t>BROWSER_20260504_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7290,25 +6840,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-05-05 09:14:00</t>
+          <t>2026-05-04 14:20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-05-05 12:01:55</t>
+          <t>2026-05-04 16:01:06</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10075</v>
+        <v>6066</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>01:41:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -7320,7 +6870,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BROWSER_20260505_01</t>
+          <t>BROWSER_20260504_01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7330,25 +6880,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-05-05 12:22:00</t>
+          <t>2026-05-04 08:14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-05-05 15:20:16</t>
+          <t>2026-05-04 10:36:56</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10696</v>
+        <v>8576</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>02:58:00</t>
+          <t>02:22:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7360,7 +6910,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20260506_00</t>
+          <t>BROWSER_20260505_00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7370,25 +6920,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-05-06 10:28:00</t>
+          <t>2026-05-05 08:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-05-06 12:52:11</t>
+          <t>2026-05-05 12:12:17</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8651</v>
+        <v>13337</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02:24:00</t>
+          <t>03:42:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7400,7 +6950,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20260506_01</t>
+          <t>BROWSER_20260506_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7410,20 +6960,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-05-06 15:21:00</t>
+          <t>2026-05-06 14:07:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-05-06 17:44:49</t>
+          <t>2026-05-06 17:09:27</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8629</v>
+        <v>10947</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02:23:00</t>
+          <t>03:02:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7450,20 +7000,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-05-07 13:44:00</t>
+          <t>2026-05-07 12:20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-05-07 17:44:52</t>
+          <t>2026-05-07 14:48:35</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14452</v>
+        <v>8915</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>02:28:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7480,7 +7030,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260508_00</t>
+          <t>BROWSER_20260507_01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7490,25 +7040,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-05-08 13:17:00</t>
+          <t>2026-05-07 11:03:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-05-08 16:30:33</t>
+          <t>2026-05-07 13:41:31</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11613</v>
+        <v>9511</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>03:13:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-05-08</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7520,7 +7070,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260511_00</t>
+          <t>BROWSER_20260508_00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7530,25 +7080,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-05-11 11:54:00</t>
+          <t>2026-05-08 11:52:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-05-11 15:36:33</t>
+          <t>2026-05-08 13:31:31</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13353</v>
+        <v>5971</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>03:42:00</t>
+          <t>01:39:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-05-11</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7560,7 +7110,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260512_00</t>
+          <t>BROWSER_20260508_01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7570,25 +7120,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-05-12 10:35:00</t>
+          <t>2026-05-08 15:08:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-05-12 12:17:21</t>
+          <t>2026-05-08 17:31:01</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6141</v>
+        <v>8581</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>01:42:00</t>
+          <t>02:23:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-05-12</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7600,7 +7150,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260512_01</t>
+          <t>BROWSER_20260511_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7610,25 +7160,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-05-12 13:48:00</t>
+          <t>2026-05-11 15:26:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-05-12 15:57:13</t>
+          <t>2026-05-11 16:59:27</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7753</v>
+        <v>5607</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02:09:00</t>
+          <t>01:33:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-05-12</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7640,7 +7190,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260513_00</t>
+          <t>BROWSER_20260511_01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7650,25 +7200,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-05-13 10:56:00</t>
+          <t>2026-05-11 14:57:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-05-13 13:18:48</t>
+          <t>2026-05-11 17:39:11</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8568</v>
+        <v>9731</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02:22:00</t>
+          <t>02:42:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7680,7 +7230,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260513_01</t>
+          <t>BROWSER_20260512_00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7690,25 +7240,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-05-13 12:50:00</t>
+          <t>2026-05-12 09:16:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-05-13 14:33:26</t>
+          <t>2026-05-12 14:32:03</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6206</v>
+        <v>18963</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>01:43:00</t>
+          <t>05:16:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7720,7 +7270,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260514_00</t>
+          <t>BROWSER_20260513_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7730,25 +7280,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-05-14 11:03:00</t>
+          <t>2026-05-13 08:43:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-05-14 13:10:22</t>
+          <t>2026-05-13 11:56:43</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7642</v>
+        <v>11623</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02:07:00</t>
+          <t>03:13:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7760,7 +7310,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260514_01</t>
+          <t>BROWSER_20260514_00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7770,20 +7320,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-05-14 15:00:00</t>
+          <t>2026-05-14 10:50:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-05-14 17:25:27</t>
+          <t>2026-05-14 13:11:39</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8727</v>
+        <v>8499</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>02:25:00</t>
+          <t>02:21:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7800,7 +7350,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260515_00</t>
+          <t>BROWSER_20260514_01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7810,25 +7360,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-05-15 15:32:00</t>
+          <t>2026-05-14 15:32:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-05-15 17:45:27</t>
+          <t>2026-05-14 17:20:57</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8007</v>
+        <v>6537</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>02:13:00</t>
+          <t>01:48:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7840,7 +7390,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260515_01</t>
+          <t>BROWSER_20260515_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7850,20 +7400,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-05-15 13:00:00</t>
+          <t>2026-05-15 15:18:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-05-15 15:47:32</t>
+          <t>2026-05-15 17:02:10</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10052</v>
+        <v>6250</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>01:44:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7880,7 +7430,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260518_00</t>
+          <t>BROWSER_20260515_01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7890,25 +7440,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-05-18 13:21:00</t>
+          <t>2026-05-15 13:57:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-05-18 16:25:31</t>
+          <t>2026-05-15 15:39:13</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11071</v>
+        <v>6133</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>03:04:00</t>
+          <t>01:42:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7920,7 +7470,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260519_00</t>
+          <t>BROWSER_20260518_00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7930,25 +7480,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-05-19 13:07:00</t>
+          <t>2026-05-18 08:11:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-05-19 17:59:24</t>
+          <t>2026-05-18 11:08:15</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17544</v>
+        <v>10635</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>04:52:00</t>
+          <t>02:57:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7960,7 +7510,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20260520_00</t>
+          <t>BROWSER_20260518_01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7970,25 +7520,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-05-20 12:19:00</t>
+          <t>2026-05-18 15:08:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-05-20 14:49:56</t>
+          <t>2026-05-18 17:21:19</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9056</v>
+        <v>7999</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02:30:00</t>
+          <t>02:13:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -8000,7 +7550,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20260520_01</t>
+          <t>BROWSER_20260519_00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -8010,25 +7560,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-05-20 15:21:00</t>
+          <t>2026-05-19 09:52:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-05-20 17:11:14</t>
+          <t>2026-05-19 15:16:25</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6614</v>
+        <v>19465</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>01:50:00</t>
+          <t>05:24:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -8040,7 +7590,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BROWSER_20260521_00</t>
+          <t>BROWSER_20260520_00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8050,25 +7600,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-05-21 12:11:00</t>
+          <t>2026-05-20 08:05:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-05-21 14:57:13</t>
+          <t>2026-05-20 11:21:57</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9973</v>
+        <v>11817</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>02:46:00</t>
+          <t>03:16:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -8080,7 +7630,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20260521_01</t>
+          <t>BROWSER_20260521_00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8090,20 +7640,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-05-21 10:59:00</t>
+          <t>2026-05-21 13:21:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-05-21 12:57:04</t>
+          <t>2026-05-21 16:31:26</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7084</v>
+        <v>11426</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>01:58:00</t>
+          <t>03:10:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
